--- a/MRTKAssemblyList.xlsx
+++ b/MRTKAssemblyList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\GitHub\MRTKMinimum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MRTK\MRTKMinimum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B987DB3-18D2-45C3-8A09-02BF82706B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94E1546-EE3B-4079-865A-8370E87AA41C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="9720" windowWidth="21300" windowHeight="20670" xr2:uid="{19ADD57A-6E03-47CB-89CF-16183E511E85}"/>
+    <workbookView xWindow="780" yWindow="3330" windowWidth="21300" windowHeight="20670" xr2:uid="{19ADD57A-6E03-47CB-89CF-16183E511E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly List" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="118">
   <si>
     <t>MRTK v2.4.0 アセンブリ一覧</t>
     <phoneticPr fontId="1"/>
@@ -848,7 +848,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>黄色セルは重要と考えられる機能、灰色セルは本リポジトリで削除した機能</t>
+    <t>黄色セルは重要と考えられる機能</t>
     <rPh sb="0" eb="2">
       <t>キイロ</t>
     </rPh>
@@ -861,16 +861,51 @@
     <rPh sb="13" eb="15">
       <t>キノウ</t>
     </rPh>
-    <rPh sb="16" eb="18">
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薄い灰色セル＆打消し線は本リポジトリに取り込んでいない機能（Foundation以外のunitypackage）</t>
+    <rPh sb="0" eb="1">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="2" eb="4">
       <t>ハイイロ</t>
     </rPh>
+    <rPh sb="7" eb="9">
+      <t>ウチケ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ト</t>
+    </rPh>
     <rPh sb="21" eb="22">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>濃い灰色セルは削除した機能</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイイロ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
       <t>サクジョ</t>
     </rPh>
-    <rPh sb="32" eb="34">
+    <rPh sb="11" eb="13">
       <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -880,7 +915,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -907,6 +942,21 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -929,13 +979,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,7 +1019,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -991,23 +1041,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1323,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85EF320-C560-4BD1-BAFF-9B3C29267F9D}">
-  <dimension ref="B2:D60"/>
+  <dimension ref="B2:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1342,139 +1395,116 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="2" t="s">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B8" s="7" t="s">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="7" t="s">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B10" s="7" t="s">
+      <c r="D12" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B11" s="7" t="s">
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C14" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="7" t="s">
+      <c r="D14" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C15" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="7" t="s">
+      <c r="D15" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C16" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>60</v>
@@ -1482,422 +1512,455 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="7" t="s">
+      <c r="D21" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C22" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="7" t="s">
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C23" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="7" t="s">
+      <c r="D23" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C24" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="7" t="s">
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C25" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B23" s="7" t="s">
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C26" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="7" t="s">
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C27" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="9" t="s">
+      <c r="D27" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="9" t="s">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B29" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B27" s="2" t="s">
+      <c r="D29" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B28" s="9" t="s">
+      <c r="D30" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B31" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B29" s="9" t="s">
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B32" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B30" s="9" t="s">
+      <c r="D32" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C33" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B31" s="9" t="s">
+      <c r="D33" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C34" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B32" s="9" t="s">
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C35" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B33" s="9" t="s">
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B36" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C36" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B34" s="9" t="s">
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B37" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C37" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B35" s="9" t="s">
+      <c r="D37" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B38" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C38" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B36" s="4" t="s">
+      <c r="D38" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B39" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B37" s="2" t="s">
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B40" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B38" s="2" t="s">
+      <c r="D40" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B41" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B39" s="4" t="s">
+      <c r="D41" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B42" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B40" s="9" t="s">
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B43" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C43" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B41" s="9" t="s">
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B44" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C44" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B42" s="9" t="s">
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B45" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C45" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B43" s="9" t="s">
+      <c r="D45" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B46" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C46" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="11"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B44" s="9" t="s">
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B47" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C47" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B45" s="4" t="s">
+      <c r="D47" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B48" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B46" s="2" t="s">
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B49" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B47" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B48" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" s="11"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B49" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49" s="5"/>
+      <c r="D49" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B50" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B51" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="2:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B51" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B52" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>105</v>
+        <v>42</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="D52" s="5"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B54" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="2:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B55" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B56" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B54" s="4" t="s">
+      <c r="D56" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B57" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B55" s="2" t="s">
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B58" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B56" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D56" s="11"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B57" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D57" s="11"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B58" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D58" s="11"/>
+      <c r="D58" s="1"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B59" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D59" s="11"/>
+        <v>107</v>
+      </c>
+      <c r="D59" s="9"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B60" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B61" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B62" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B63" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C63" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="11"/>
+      <c r="D63" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/MRTKAssemblyList.xlsx
+++ b/MRTKAssemblyList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MRTK\MRTKMinimum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94E1546-EE3B-4079-865A-8370E87AA41C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBC170A-D4F9-48AC-907B-969244F49033}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="3330" windowWidth="21300" windowHeight="20670" xr2:uid="{19ADD57A-6E03-47CB-89CF-16183E511E85}"/>
+    <workbookView xWindow="2070" yWindow="5460" windowWidth="21300" windowHeight="20670" xr2:uid="{19ADD57A-6E03-47CB-89CF-16183E511E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly List" sheetId="1" r:id="rId1"/>
@@ -1379,7 +1379,7 @@
   <dimension ref="B2:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1664,10 +1664,10 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D33" s="9" t="s">
@@ -1684,10 +1684,10 @@
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="9" t="s">
         <v>82</v>
       </c>
       <c r="D35" s="9"/>

--- a/MRTKAssemblyList.xlsx
+++ b/MRTKAssemblyList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MRTK\MRTKMinimum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBC170A-D4F9-48AC-907B-969244F49033}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F750D0C-72DE-42BE-990B-485588162096}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="5460" windowWidth="21300" windowHeight="20670" xr2:uid="{19ADD57A-6E03-47CB-89CF-16183E511E85}"/>
+    <workbookView xWindow="1980" yWindow="3840" windowWidth="21300" windowHeight="20670" xr2:uid="{19ADD57A-6E03-47CB-89CF-16183E511E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly List" sheetId="1" r:id="rId1"/>
@@ -1378,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85EF320-C560-4BD1-BAFF-9B3C29267F9D}">
   <dimension ref="B2:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1693,19 +1693,19 @@
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="9"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D37" s="9" t="s">
@@ -1713,10 +1713,10 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D38" s="9" t="s">

--- a/MRTKAssemblyList.xlsx
+++ b/MRTKAssemblyList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MRTK\MRTKMinimum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F750D0C-72DE-42BE-990B-485588162096}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F141CC-7320-4132-AD78-DD18F83415FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="3840" windowWidth="21300" windowHeight="20670" xr2:uid="{19ADD57A-6E03-47CB-89CF-16183E511E85}"/>
+    <workbookView xWindow="1800" yWindow="6930" windowWidth="21300" windowHeight="20670" xr2:uid="{19ADD57A-6E03-47CB-89CF-16183E511E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly List" sheetId="1" r:id="rId1"/>
@@ -1050,9 +1050,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1061,6 +1058,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1379,7 +1379,7 @@
   <dimension ref="B2:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:C38"/>
+      <selection activeCell="B44" sqref="B44:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1440,19 +1440,19 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>58</v>
       </c>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -1460,19 +1460,19 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>61</v>
       </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -1480,10 +1480,10 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -1491,10 +1491,10 @@
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>64</v>
       </c>
       <c r="D16" s="9"/>
@@ -1555,19 +1555,19 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>70</v>
       </c>
       <c r="D23" s="9" t="s">
@@ -1575,37 +1575,37 @@
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>101</v>
       </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>102</v>
       </c>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>103</v>
       </c>
       <c r="D26" s="9"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>72</v>
       </c>
       <c r="D27" s="9" t="s">
@@ -1644,7 +1644,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -1653,7 +1653,7 @@
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -1664,7 +1664,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="9" t="s">
@@ -1684,7 +1684,7 @@
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -1693,7 +1693,7 @@
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -1702,7 +1702,7 @@
       <c r="D36" s="9"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -1713,7 +1713,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -1773,19 +1773,19 @@
       <c r="D43" s="9"/>
     </row>
     <row r="44" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="13" t="s">
         <v>109</v>
       </c>
       <c r="D44" s="9"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D45" s="9" t="s">
@@ -1793,19 +1793,19 @@
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="9" t="s">
         <v>90</v>
       </c>
       <c r="D46" s="9"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>91</v>
       </c>
       <c r="D47" s="9" t="s">
@@ -1945,19 +1945,19 @@
       <c r="D61" s="9"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="11" t="s">
         <v>113</v>
       </c>
       <c r="D62" s="9"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="11" t="s">
         <v>114</v>
       </c>
       <c r="D63" s="9"/>

--- a/MRTKAssemblyList.xlsx
+++ b/MRTKAssemblyList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MRTK\MRTKMinimum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F141CC-7320-4132-AD78-DD18F83415FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2E29A4-A431-4257-92AA-69710EF928BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="6930" windowWidth="21300" windowHeight="20670" xr2:uid="{19ADD57A-6E03-47CB-89CF-16183E511E85}"/>
+    <workbookView xWindow="27675" yWindow="4875" windowWidth="21300" windowHeight="20670" xr2:uid="{19ADD57A-6E03-47CB-89CF-16183E511E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly List" sheetId="1" r:id="rId1"/>
@@ -1378,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85EF320-C560-4BD1-BAFF-9B3C29267F9D}">
   <dimension ref="B2:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:C47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1844,10 +1844,10 @@
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D51" s="9"/>

--- a/MRTKAssemblyList.xlsx
+++ b/MRTKAssemblyList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MRTK\MRTKMinimum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2E29A4-A431-4257-92AA-69710EF928BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C870D271-42C9-47B7-B3AF-570705A912FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27675" yWindow="4875" windowWidth="21300" windowHeight="20670" xr2:uid="{19ADD57A-6E03-47CB-89CF-16183E511E85}"/>
+    <workbookView xWindow="2700" yWindow="8025" windowWidth="21300" windowHeight="20670" xr2:uid="{19ADD57A-6E03-47CB-89CF-16183E511E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly List" sheetId="1" r:id="rId1"/>
@@ -1379,7 +1379,7 @@
   <dimension ref="B2:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:C51"/>
+      <selection activeCell="B61" sqref="B61:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1936,10 +1936,10 @@
       <c r="D60" s="9"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D61" s="9"/>

--- a/MRTKAssemblyList.xlsx
+++ b/MRTKAssemblyList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MRTK\MRTKMinimum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C870D271-42C9-47B7-B3AF-570705A912FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA2B88C-76BE-4D87-81CB-870FAE2B949E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="8025" windowWidth="21300" windowHeight="20670" xr2:uid="{19ADD57A-6E03-47CB-89CF-16183E511E85}"/>
+    <workbookView xWindow="2160" yWindow="4095" windowWidth="21300" windowHeight="20670" xr2:uid="{19ADD57A-6E03-47CB-89CF-16183E511E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly List" sheetId="1" r:id="rId1"/>
@@ -1379,7 +1379,7 @@
   <dimension ref="B2:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61:C61"/>
+      <selection activeCell="B59" sqref="B59:C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1918,10 +1918,10 @@
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="9" t="s">
         <v>107</v>
       </c>
       <c r="D59" s="9"/>

--- a/MRTKAssemblyList.xlsx
+++ b/MRTKAssemblyList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MRTK\MRTKMinimum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA2B88C-76BE-4D87-81CB-870FAE2B949E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E92C81-E1E0-414D-9434-60A157222066}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="4095" windowWidth="21300" windowHeight="20670" xr2:uid="{19ADD57A-6E03-47CB-89CF-16183E511E85}"/>
+    <workbookView xWindow="2985" yWindow="5895" windowWidth="21300" windowHeight="20670" xr2:uid="{19ADD57A-6E03-47CB-89CF-16183E511E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly List" sheetId="1" r:id="rId1"/>
@@ -1379,7 +1379,7 @@
   <dimension ref="B2:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:C59"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1764,10 +1764,10 @@
       <c r="D42" s="5"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D43" s="9"/>

--- a/MRTKAssemblyList.xlsx
+++ b/MRTKAssemblyList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MRTK\MRTKMinimum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E92C81-E1E0-414D-9434-60A157222066}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB537F3C-A611-49DA-A6BD-735C52A251CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="5895" windowWidth="21300" windowHeight="20670" xr2:uid="{19ADD57A-6E03-47CB-89CF-16183E511E85}"/>
+    <workbookView xWindow="7875" yWindow="9600" windowWidth="21300" windowHeight="20670" xr2:uid="{19ADD57A-6E03-47CB-89CF-16183E511E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly List" sheetId="1" r:id="rId1"/>
@@ -1379,7 +1379,7 @@
   <dimension ref="B2:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="B34" sqref="B34:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1675,10 +1675,10 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="9"/>

--- a/MRTKAssemblyList.xlsx
+++ b/MRTKAssemblyList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MRTK\MRTKMinimum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB537F3C-A611-49DA-A6BD-735C52A251CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2904030-D44F-4A72-99E9-FA7FBC205A9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7875" yWindow="9600" windowWidth="21300" windowHeight="20670" xr2:uid="{19ADD57A-6E03-47CB-89CF-16183E511E85}"/>
+    <workbookView xWindow="3915" yWindow="5940" windowWidth="21300" windowHeight="20670" xr2:uid="{19ADD57A-6E03-47CB-89CF-16183E511E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly List" sheetId="1" r:id="rId1"/>
@@ -1378,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85EF320-C560-4BD1-BAFF-9B3C29267F9D}">
   <dimension ref="B2:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:C34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1927,10 +1927,10 @@
       <c r="D59" s="9"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="9" t="s">
         <v>110</v>
       </c>
       <c r="D60" s="9"/>

--- a/MRTKAssemblyList.xlsx
+++ b/MRTKAssemblyList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MRTK\MRTKMinimum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2904030-D44F-4A72-99E9-FA7FBC205A9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A865375-44D7-4AB9-A0FC-CBFCE95175A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="5940" windowWidth="21300" windowHeight="20670" xr2:uid="{19ADD57A-6E03-47CB-89CF-16183E511E85}"/>
+    <workbookView xWindow="28575" yWindow="3810" windowWidth="21300" windowHeight="20670" xr2:uid="{19ADD57A-6E03-47CB-89CF-16183E511E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly List" sheetId="1" r:id="rId1"/>
@@ -1822,10 +1822,10 @@
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D49" s="1" t="s">
